--- a/Documents/2. 요구분석/2024-01-03 A팀 기능적 요구사항 정의  v2.xlsx
+++ b/Documents/2. 요구분석/2024-01-03 A팀 기능적 요구사항 정의  v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EzenTeamProjectFirst\Documents\2. 요구분석\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC12CD0-74B5-47B7-9779-1E943F1ABEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84ED9FE4-C5E4-4F81-9913-8D0024B255AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5610" yWindow="1380" windowWidth="18390" windowHeight="12705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22605" yWindow="1845" windowWidth="12195" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기능적 요구사항 정의" sheetId="1" r:id="rId1"/>
@@ -470,11 +470,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -758,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -802,7 +802,7 @@
       <c r="E3" s="12">
         <v>45289</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="15" t="s">
         <v>43</v>
       </c>
       <c r="H3" s="10"/>
@@ -823,7 +823,7 @@
       <c r="E4" s="12">
         <v>45289</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
@@ -838,7 +838,7 @@
       <c r="E5" s="12">
         <v>45289</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="2:11" ht="33" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
@@ -853,7 +853,7 @@
       <c r="E6" s="12">
         <v>45289</v>
       </c>
-      <c r="F6" s="14"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="2:11" ht="66" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
@@ -868,7 +868,7 @@
       <c r="E7" s="12">
         <v>45289</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="15" t="s">
         <v>66</v>
       </c>
     </row>
@@ -885,7 +885,7 @@
       <c r="E8" s="12">
         <v>45289</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
@@ -900,7 +900,7 @@
       <c r="E9" s="12">
         <v>45289</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="2:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
@@ -915,7 +915,7 @@
       <c r="E10" s="12">
         <v>45289</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="2:11" ht="66" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
@@ -930,7 +930,7 @@
       <c r="E11" s="12">
         <v>45289</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" spans="2:11" ht="33" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
@@ -945,7 +945,7 @@
       <c r="E12" s="12">
         <v>45289</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="15" t="s">
         <v>44</v>
       </c>
     </row>
@@ -962,7 +962,7 @@
       <c r="E13" s="12">
         <v>45289</v>
       </c>
-      <c r="F13" s="14"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" spans="2:11" ht="66" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
@@ -977,7 +977,7 @@
       <c r="E14" s="12">
         <v>45289</v>
       </c>
-      <c r="F14" s="14"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="2:11" ht="33" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
@@ -992,7 +992,7 @@
       <c r="E15" s="12">
         <v>45289</v>
       </c>
-      <c r="F15" s="14"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
@@ -1007,7 +1007,7 @@
       <c r="E16" s="12">
         <v>45289</v>
       </c>
-      <c r="F16" s="14"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
@@ -1022,7 +1022,7 @@
       <c r="E17" s="12">
         <v>45289</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="15" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
       <c r="E18" s="12">
         <v>45289</v>
       </c>
-      <c r="F18" s="14"/>
+      <c r="F18" s="15"/>
     </row>
     <row r="19" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
@@ -1054,7 +1054,7 @@
       <c r="E19" s="12">
         <v>45289</v>
       </c>
-      <c r="F19" s="14"/>
+      <c r="F19" s="15"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
@@ -1069,7 +1069,7 @@
       <c r="E20" s="12">
         <v>45289</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="15" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       <c r="E21" s="12">
         <v>45289</v>
       </c>
-      <c r="F21" s="14"/>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
@@ -1101,10 +1101,10 @@
       <c r="E22" s="12">
         <v>45289</v>
       </c>
-      <c r="F22" s="14"/>
+      <c r="F22" s="15"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>68</v>
       </c>
     </row>
